--- a/Prompts/Telecom IVR.xlsx
+++ b/Prompts/Telecom IVR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IST\Moaz\Work\Training\internship-material\Prompts\Matrices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IST\Moaz\Work\Training\internship-material\Prompts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD1CF73-0EC6-4153-843E-B9AB4E573701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363A0FEC-0F4E-4775-8F5B-3EC0E5CA7BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4DC23DDF-CBC3-4792-9BEF-60AB69FFBEFF}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Filename</t>
   </si>
@@ -43,12 +43,6 @@
     <t>LangMenu.wav</t>
   </si>
   <si>
-    <t>For Arabic press 1, for English press 2</t>
-  </si>
-  <si>
-    <t>للغة العربية اضغط 1، للغة الإنجليزية اضغط 2</t>
-  </si>
-  <si>
     <t>MainMenu.wav</t>
   </si>
   <si>
@@ -209,6 +203,21 @@
   </si>
   <si>
     <t>عذراً، هذا خيار غير صحيح.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxTries.wav </t>
+  </si>
+  <si>
+    <t>Sorry, you have exceeded the maximum number of attempts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عذراً، لقد تجاوزت الحد الأقصى لعدد المحاولات. </t>
+  </si>
+  <si>
+    <t>For English press 2</t>
+  </si>
+  <si>
+    <t>للغة العربية اضغط 1</t>
   </si>
 </sst>
 </file>
@@ -692,8 +701,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -739,7 +749,64 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -753,12 +820,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D07B0C3-4668-429A-87BE-F493EE85E4B1}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21" xr:uid="{4D07B0C3-4668-429A-87BE-F493EE85E4B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D07B0C3-4668-429A-87BE-F493EE85E4B1}" name="Table1" displayName="Table1" ref="A1:C22" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:C22" xr:uid="{4D07B0C3-4668-429A-87BE-F493EE85E4B1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B8A351AF-992E-4038-BA5E-4AC0DB0C7AE1}" name="Filename"/>
-    <tableColumn id="2" xr3:uid="{CC041A00-CB4B-41F9-B269-3671FE30042F}" name="English Prompt"/>
-    <tableColumn id="3" xr3:uid="{0FF30E1D-51B4-4C82-BEFA-ABD955EA0116}" name="Arabic Prompt"/>
+    <tableColumn id="1" xr3:uid="{B8A351AF-992E-4038-BA5E-4AC0DB0C7AE1}" name="Filename" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CC041A00-CB4B-41F9-B269-3671FE30042F}" name="English Prompt" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{0FF30E1D-51B4-4C82-BEFA-ABD955EA0116}" name="Arabic Prompt" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1061,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDFCD22-BA9B-427D-B773-A70BF65CFC9F}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,223 +1153,234 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C22" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
